--- a/results_data/2002/basic_posting_flows.big_rocks.explained/shutil_store/bre_ledger.T10_form                LedgerPro.big-rocks.journeys.a6i.xlsx
+++ b/results_data/2002/basic_posting_flows.big_rocks.explained/shutil_store/bre_ledger.T10_form                LedgerPro.big-rocks.journeys.a6i.xlsx
@@ -128,7 +128,7 @@
     <t>big-rock-estimate</t>
   </si>
   <si>
-    <t>F2:I12</t>
+    <t>F2:I46</t>
   </si>
   <si>
     <t>Posting Label</t>
